--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj\Desktop\InvestMe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Workspace\InvestMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,12 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>DEPOSITS_URL</t>
   </si>
   <si>
     <t>http://159.253.23.26/DepositsQuery.json</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>bank_id</t>
+  </si>
+  <si>
+    <t>bank_abbr</t>
+  </si>
+  <si>
+    <t>bank_full_name</t>
+  </si>
+  <si>
+    <t>Deposits</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>deposit_name</t>
+  </si>
+  <si>
+    <t>maxRate</t>
+  </si>
+  <si>
+    <t>minAmount</t>
+  </si>
+  <si>
+    <t>minPeriodDays</t>
+  </si>
+  <si>
+    <t>replenishment</t>
+  </si>
+  <si>
+    <t>withdrawal</t>
   </si>
 </sst>
 </file>
@@ -360,24 +396,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.26953125" customWidth="1"/>
-    <col min="2" max="2" width="99.54296875" customWidth="1"/>
+    <col min="1" max="1" width="89.28515625" customWidth="1"/>
+    <col min="2" max="2" width="99.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
